--- a/input_data/abutments/abutments_unsh.xlsx
+++ b/input_data/abutments/abutments_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/abutments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/abutments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4831743D-D360-A14A-95FC-2304625FBDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516EB762-0711-2941-9C04-FEF219A0138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Отбор:</t>
   </si>
@@ -68,9 +68,6 @@
     <t>35380 Абатмент временный LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>35975опт Абатмент временный LM (собств. разр.) MegaGen AnyRidge D=4 G/H=2 с позиционером без внутр. резьбы V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>35025 Абатмент временный LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTTA4510TH) V.1</t>
   </si>
   <si>
@@ -98,129 +95,108 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
+    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
+  </si>
+  <si>
+    <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
+  </si>
+  <si>
+    <t>35600М Абатмент выжигаемый LM Mis Multi-Unit без позиционера</t>
+  </si>
+  <si>
+    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
+  </si>
+  <si>
+    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
+  </si>
+  <si>
+    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+  </si>
+  <si>
+    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35560М Абатмент выжигаемый LM Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) /</t>
+  </si>
+  <si>
+    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
+  </si>
+  <si>
+    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
+  </si>
+  <si>
+    <t>35527 Абатмент выжигаемый LM Xive 3.8 с позиционером</t>
+  </si>
+  <si>
+    <t>35528 Абатмент выжигаемый LM Xive 4.5 с позиционером</t>
+  </si>
+  <si>
+    <t>35526 Абатмент выжигаемый LM Xive 3.4 с позиционером</t>
+  </si>
+  <si>
+    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
+  </si>
+  <si>
+    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
+  </si>
+  <si>
+    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
+  </si>
+  <si>
+    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
+  </si>
+  <si>
+    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
+  </si>
+  <si>
+    <t>35509 Абатмент выжигаемый LM MegaGen AnyRidge с позиционером</t>
+  </si>
+  <si>
+    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
+  </si>
+  <si>
+    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
+  </si>
+  <si>
     <t>35560V2 Абатмент выжигаемый LM Nobel Multi-Unit без позиционера</t>
   </si>
   <si>
-    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
-  </si>
-  <si>
-    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
-  </si>
-  <si>
-    <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
-  </si>
-  <si>
-    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
-  </si>
-  <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
-    <t>35578 Абатмент выжигаемый LM Neodent Grand Morse с позиционером</t>
-  </si>
-  <si>
-    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35534Муп Абатмент выжигаемый LM Implantium без позиционера / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35534уп Абатмент выжигаемый LM Implantium с позиционером / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
-  </si>
-  <si>
-    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
-  </si>
-  <si>
-    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35530 Абатмент выжигаемый LM BioHorizons 3.0 с позиционером</t>
-  </si>
-  <si>
-    <t>35532 Абатмент выжигаемый LM BioHorizons 4.5 с позиционером</t>
-  </si>
-  <si>
-    <t>35519М Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) без позиционера</t>
-  </si>
-  <si>
-    <t>35518М Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) без позиционера</t>
-  </si>
-  <si>
-    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
-  </si>
-  <si>
-    <t>35532М Абатмент выжигаемый LM BioHorizons 4.5 без позиционера</t>
-  </si>
-  <si>
-    <t>35531М Абатмент выжигаемый LM BioHorizons 3.5 без позиционера</t>
-  </si>
-  <si>
-    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35557М Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) без позиционера</t>
-  </si>
-  <si>
-    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
-    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
-  </si>
-  <si>
-    <t>35557 Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) с позиционером</t>
-  </si>
-  <si>
-    <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
-  </si>
-  <si>
-    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
-  </si>
-  <si>
-    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
-    <t>35554 Абатмент выжигаемый LM Anthogyr Axiom с позиционером</t>
-  </si>
-  <si>
-    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
-  </si>
-  <si>
-    <t>35554М Абатмент выжигаемый LM Anthogyr Axiom без позиционера</t>
-  </si>
-  <si>
-    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
-  </si>
-  <si>
     <t>Абатмент приливаемый</t>
   </si>
   <si>
@@ -233,34 +209,43 @@
     <t>35202СБуп2 Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35796СБуп2 Абатмент приливаемый LM (собств. разр.) Osstem Implant Mini (3.5) D=4.5 G/H=1.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35200СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 с позиционером V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
+  </si>
+  <si>
     <t>35202СБуп Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
+    <t>35201СБопт Абатмент приливаемый LM (собств. разр.) Osstem Implant Mini (3.5) D=4.5 G/H=1.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>35797СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
     <t>35574СБ Абатмент приливаемый LM (собств. разр.) Mis SP (3.75/4.2) D=4.5 G/H=0.6 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
+    <t>35798СБуп2 Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 без позиционера V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35797СБопт Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>35796СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Mini (3.5) D=4.5 G/H=1.5 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
     <t>35214СБуп2 Абатмент приливаемый LM (собств. разр.) MegaGen AnyRidge D=4.5 G/H=1.35 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>35213СБопт Абатмент приливаемый LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8) D=4.5 G/H=1.3 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>35214 Абатмент приливаемый LM (собств. разр.) MegaGen AnyRidge D=4.5 G/H=1.35 с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>35797СБопт Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>35215СБуп2 Абатмент приливаемый LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 G/H=1.1 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>35200СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 с позиционером V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
+    <t>35797СБуп2 Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>35206СБ Абатмент приливаемый LM (собств. разр.) Astra Tech 3.5/4.0 D=4.5 G/H=1.2 с позиционером V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
@@ -275,51 +260,57 @@
     <t>35022 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH) V.1</t>
   </si>
   <si>
+    <t>35028 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. DAB4510HL) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>35003 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTA4611) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>35005 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTA4631) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>35019опт Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=3 с позиционером с внутр. резьбой (арт. TLA3 5350) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
+  </si>
+  <si>
     <t>35042 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>35076 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>35078Пуп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>35076 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35028 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. DAB4510HL) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35041опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1</t>
-  </si>
-  <si>
     <t>35041 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1 / Б</t>
   </si>
   <si>
+    <t>35020уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTAS4621) V.1 /</t>
+  </si>
+  <si>
+    <t>35041уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1</t>
+  </si>
+  <si>
     <t>35041П Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) ПОЛИР.</t>
   </si>
   <si>
     <t>35004 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>35020опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTAS4621) V.1 /</t>
-  </si>
-  <si>
     <t>35022уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH)</t>
   </si>
   <si>
-    <t>35021опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTAS4631) V.1 /</t>
-  </si>
-  <si>
     <t>35079уп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB5525HL) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35016опт Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.6 с позиционером с внутр. резьбой (арт. TLA5030) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
+  </si>
+  <si>
     <t>35133опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.6 G/H=5 с позиционером без внутр. резьбы (арт. GSTAS4651WH) V.1</t>
   </si>
   <si>
+    <t>35040опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=4.5 H=5.5 с позиционером без внутр. резьбы (арт. DAB4545HL) V.1 / ВКЛ. 1 ВИНТ, ИМ А</t>
+  </si>
+  <si>
     <t>35016 Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.6 с позиционером с внутр. резьбой (арт. TLA5030) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
     <t>35007уп2 Абатмент прямой LM (копия оригинала) Dentis Regular D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. DSSA4520PCTS) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>35016опт Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.6 с позиционером с внутр. резьбой (арт. TLA5030) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
-  </si>
-  <si>
     <t>35078 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
@@ -353,45 +341,21 @@
     <t>36093 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 / БЕЗ МАН</t>
   </si>
   <si>
-    <t>36089 Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
-  </si>
-  <si>
-    <t>36093уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 ВКЛ МАН</t>
+    <t>я НЕ ИСП !!!35576Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=2.5 (арт. MU5025HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>44044 Абатмент прямой MU LM (собств. разр.) Mis SP (3.75/4.2) D=4.8 G/H=3 V.1 / БЕЗ МАНЖЕТЫ</t>
+  </si>
+  <si>
+    <t>44045уп Абатмент прямой MU LM (собств. разр.) Astra Tech 3.5/4.0 D=4.8 G/H=1 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
+  </si>
+  <si>
+    <t>35575Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=1.5 (арт. MU5015HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
   </si>
   <si>
     <t>36088 Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=1 V.1 / БЕЗ МАНЖЕТЫ</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!35576Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=2.5 (арт. MU5025HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>44035 Абатмент прямой MU LM (собств. разр.) Ankylos X D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
-  </si>
-  <si>
-    <t>36090 Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=3 V.1 / БЕЗ МАНЖЕТЫ</t>
-  </si>
-  <si>
-    <t>36092уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2 V.1 ВКЛ МАН</t>
-  </si>
-  <si>
-    <t>44045уп Абатмент прямой MU LM (собств. разр.) Astra Tech 3.5/4.0 D=4.8 G/H=1 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
-  </si>
-  <si>
-    <t>44061уп Абатмент прямой MU LM (собств. разр.) Straumann Bone Level NC (3.3) D=4.8 G/H=2 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
-  </si>
-  <si>
-    <t>44062уп Абатмент прямой MU LM (собств. разр.) Straumann Bone Level NC (3.3) D=4.8 G/H=3 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
-  </si>
-  <si>
-    <t>35575Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=1.5 (арт. MU5015HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>44065уп Абатмент прямой MU LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8) D=4.8 G/H=3 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
-  </si>
-  <si>
-    <t>44064уп Абатмент прямой MU LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8) D=4.8 G/H=2 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
-  </si>
-  <si>
     <t>Абатмент угловой</t>
   </si>
   <si>
@@ -401,18 +365,12 @@
     <t>35350 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA5020AWH</t>
   </si>
   <si>
-    <t>35046опт Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA452</t>
-  </si>
-  <si>
-    <t>35045 Абатмент угловой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA4520MAWH) V.1 / Б</t>
+    <t>35048опт Абатмент угловой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.7 Угол=15 с позиционером с внутр. резьбой (арт. TLA 15 5090) V.1 / ВКЛ.</t>
   </si>
   <si>
     <t>я НЕ ИСП !!!350461уп2 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы</t>
   </si>
   <si>
-    <t>35045опт Абатмент угловой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA4520MAWH) V.1</t>
-  </si>
-  <si>
     <t>Абатмент угловой Multi-unit</t>
   </si>
   <si>
@@ -422,76 +380,31 @@
     <t>36086 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>36084 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>36094 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>36084 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+    <t>36087 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>36085 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>36080 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>36085уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>36087уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>36084уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+    <t>36096опт Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>36095 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>36083 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36085 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36081 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36097 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36082 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36087 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36087опт Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>36084опт Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>44008опт Абатмент угловой MU LM (собств. разр.) MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>36096 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>44007опт Абатмент угловой MU LM (собств. разр.) MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>36094опт Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>44010уп Абатмент угловой MU LM (собств. разр.) MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>44007уп Абатмент угловой MU LM (собств. разр.) MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>44008уп Абатмент угловой MU LM (собств. разр.) MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>36096опт Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>44009уп Абатмент угловой MU LM (собств. разр.) MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+    <t>44038 Абатмент угловой MU LM (собств. разр.) Mis SP (3.75/4.2) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>Временный цилиндр</t>
@@ -984,7 +897,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +970,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -1065,7 +978,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1141,13 +1054,15 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>10</v>
+        <v>452</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6">
+        <v>445</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1157,11 +1072,11 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>452</v>
+        <v>262</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="6">
-        <v>445</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
@@ -1175,15 +1090,13 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="6">
-        <v>255</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1193,13 +1106,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1209,15 +1124,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1227,13 +1140,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1259,49 +1172,49 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17">
-        <v>101</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15">
+        <v>399</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="4">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15">
-        <v>778</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="4">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4">
-        <v>763</v>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>53</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1311,13 +1224,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>250</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1327,13 +1240,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1343,13 +1256,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1359,61 +1272,63 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6">
+        <v>10</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1423,13 +1338,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1439,13 +1354,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1455,47 +1370,47 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1505,31 +1420,29 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="6">
-        <v>5</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1539,29 +1452,29 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1571,13 +1484,13 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1587,13 +1500,13 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1603,13 +1516,13 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1619,13 +1532,13 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1635,29 +1548,29 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1683,45 +1596,45 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1731,13 +1644,13 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1747,13 +1660,13 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1763,13 +1676,13 @@
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1779,45 +1692,45 @@
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1827,159 +1740,161 @@
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17">
-        <v>4</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15">
+        <v>544</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="4">
+        <v>26</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="6">
+        <v>3</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15">
-        <v>421</v>
-      </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="4">
-        <v>3</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="4">
-        <v>418</v>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17">
+        <v>11</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1989,13 +1904,13 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2005,13 +1920,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2021,13 +1936,13 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2037,13 +1952,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2053,13 +1968,13 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2069,13 +1984,13 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2085,13 +2000,13 @@
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2101,13 +2016,15 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E70" s="17"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="6">
+        <v>20</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2120,26 +2037,30 @@
         <v>4</v>
       </c>
       <c r="E71" s="17"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="6">
+        <v>3</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17">
-        <v>4</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6">
-        <v>4</v>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15">
+        <v>344</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="4">
+        <v>148</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4">
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2149,13 +2070,15 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="6">
+        <v>67</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2165,13 +2088,15 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="6">
+        <v>3</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2181,13 +2106,15 @@
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="6">
+        <v>13</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2197,33 +2124,31 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="6">
-        <v>3</v>
-      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17">
+        <v>12</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15">
-        <v>340</v>
-      </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="4">
-        <v>148</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="4">
-        <v>192</v>
+      <c r="G77" s="7"/>
+      <c r="H77" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2233,15 +2158,13 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E78" s="17"/>
-      <c r="F78" s="6">
-        <v>67</v>
-      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2251,15 +2174,15 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="17">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2269,13 +2192,15 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E80" s="17"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="6">
+        <v>30</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2285,15 +2210,13 @@
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E81" s="17"/>
-      <c r="F81" s="6">
-        <v>1</v>
-      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2303,15 +2226,13 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="6">
-        <v>2</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2321,13 +2242,13 @@
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2337,15 +2258,13 @@
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E84" s="17"/>
-      <c r="F84" s="6">
-        <v>30</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2355,15 +2274,13 @@
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="17">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E85" s="17"/>
-      <c r="F85" s="6">
-        <v>13</v>
-      </c>
+      <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2373,13 +2290,13 @@
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2389,13 +2306,15 @@
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="17">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E87" s="17"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="6">
+        <v>17</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2405,13 +2324,15 @@
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E88" s="17"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="6">
+        <v>8</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2421,13 +2342,13 @@
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2437,13 +2358,13 @@
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2453,15 +2374,13 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E91" s="17"/>
-      <c r="F91" s="6">
-        <v>17</v>
-      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2471,13 +2390,13 @@
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2487,15 +2406,15 @@
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2505,13 +2424,13 @@
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2521,13 +2440,15 @@
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17">
+        <v>3</v>
+      </c>
+      <c r="E95" s="17"/>
+      <c r="F95" s="6">
         <v>2</v>
       </c>
-      <c r="E95" s="17"/>
-      <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2537,15 +2458,13 @@
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E96" s="17"/>
-      <c r="F96" s="6">
-        <v>5</v>
-      </c>
+      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2564,20 +2483,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="16" t="s">
+    <row r="98" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="17">
-        <v>1</v>
-      </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="6">
-        <v>1</v>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15">
+        <v>131</v>
+      </c>
+      <c r="E98" s="15"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="4">
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2587,15 +2506,13 @@
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E99" s="17"/>
-      <c r="F99" s="6">
-        <v>2</v>
-      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2605,13 +2522,13 @@
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="17">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2621,29 +2538,29 @@
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="17">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="15">
-        <v>149</v>
-      </c>
-      <c r="E102" s="15"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="4">
-        <v>149</v>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17">
+        <v>6</v>
+      </c>
+      <c r="E102" s="17"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2653,13 +2570,13 @@
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="17">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2669,13 +2586,13 @@
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="17">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="6">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2685,13 +2602,13 @@
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="17">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2701,29 +2618,31 @@
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E106" s="17"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="17">
-        <v>6</v>
-      </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="6">
-        <v>6</v>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15">
+        <v>20</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2733,13 +2652,15 @@
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E108" s="17"/>
-      <c r="F108" s="7"/>
+      <c r="F108" s="6">
+        <v>2</v>
+      </c>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2765,13 +2686,13 @@
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2781,29 +2702,31 @@
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
       <c r="D111" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="17">
-        <v>4</v>
-      </c>
-      <c r="E112" s="17"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="6">
-        <v>4</v>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15">
+        <v>378</v>
+      </c>
+      <c r="E112" s="15"/>
+      <c r="F112" s="4">
+        <v>78</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="4">
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2813,13 +2736,15 @@
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
       <c r="D113" s="17">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="E113" s="17"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="6">
+        <v>78</v>
+      </c>
       <c r="G113" s="7"/>
       <c r="H113" s="6">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2829,13 +2754,13 @@
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
       <c r="D114" s="17">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2845,13 +2770,13 @@
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="17">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="6">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2861,13 +2786,13 @@
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2877,13 +2802,13 @@
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2893,31 +2818,29 @@
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15">
-        <v>24</v>
-      </c>
-      <c r="E119" s="15"/>
-      <c r="F119" s="4">
-        <v>2</v>
-      </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="4">
-        <v>22</v>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="17">
+        <v>6</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2927,15 +2850,13 @@
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
       <c r="D120" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E120" s="17"/>
-      <c r="F120" s="6">
-        <v>2</v>
-      </c>
+      <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2945,13 +2866,13 @@
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2961,13 +2882,13 @@
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2986,20 +2907,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="16" t="s">
+    <row r="124" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="17">
-        <v>2</v>
-      </c>
-      <c r="E124" s="17"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="6">
-        <v>2</v>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15">
+        <v>16</v>
+      </c>
+      <c r="E124" s="15"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3009,13 +2930,13 @@
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
       <c r="D125" s="17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E125" s="17"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3025,597 +2946,71 @@
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="15">
-        <v>457</v>
+        <v>183</v>
       </c>
       <c r="E126" s="15"/>
-      <c r="F126" s="4">
-        <v>78</v>
-      </c>
+      <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="4">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
       <c r="D127" s="17">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="E127" s="17"/>
-      <c r="F127" s="6">
-        <v>78</v>
-      </c>
+      <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A128" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
       <c r="D128" s="17">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E128" s="17"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="17">
-        <v>20</v>
-      </c>
-      <c r="E129" s="17"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="17">
-        <v>12</v>
-      </c>
-      <c r="E130" s="17"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="17">
-        <v>11</v>
-      </c>
-      <c r="E131" s="17"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="17">
-        <v>10</v>
-      </c>
-      <c r="E132" s="17"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="17">
-        <v>10</v>
-      </c>
-      <c r="E133" s="17"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="17">
-        <v>10</v>
-      </c>
-      <c r="E134" s="17"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="17">
-        <v>9</v>
-      </c>
-      <c r="E135" s="17"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="17">
-        <v>5</v>
-      </c>
-      <c r="E136" s="17"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="17">
-        <v>5</v>
-      </c>
-      <c r="E137" s="17"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="17">
-        <v>5</v>
-      </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="17">
-        <v>5</v>
-      </c>
-      <c r="E139" s="17"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="17">
-        <v>5</v>
-      </c>
-      <c r="E140" s="17"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="17">
-        <v>5</v>
-      </c>
-      <c r="E141" s="17"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="17">
-        <v>4</v>
-      </c>
-      <c r="E142" s="17"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="17">
-        <v>4</v>
-      </c>
-      <c r="E143" s="17"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="17">
-        <v>4</v>
-      </c>
-      <c r="E144" s="17"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="17"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="17">
-        <v>2</v>
-      </c>
-      <c r="E146" s="17"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="17">
-        <v>2</v>
-      </c>
-      <c r="E147" s="17"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="17">
-        <v>2</v>
-      </c>
-      <c r="E148" s="17"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="17">
-        <v>2</v>
-      </c>
-      <c r="E149" s="17"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="17">
-        <v>2</v>
-      </c>
-      <c r="E150" s="17"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="17">
-        <v>2</v>
-      </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="17">
-        <v>1</v>
-      </c>
-      <c r="E152" s="17"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="15">
-        <v>16</v>
-      </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="16"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="17">
-        <v>16</v>
-      </c>
-      <c r="E154" s="17"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="15">
-        <v>178</v>
-      </c>
-      <c r="E155" s="15"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="17">
-        <v>96</v>
-      </c>
-      <c r="E156" s="17"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" s="16"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="17">
-        <v>82</v>
-      </c>
-      <c r="E157" s="17"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="18">
-        <v>3316</v>
-      </c>
-      <c r="E158" s="18"/>
-      <c r="F158" s="8">
-        <v>1066</v>
-      </c>
-      <c r="G158" s="9"/>
-      <c r="H158" s="8">
-        <v>2250</v>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="18">
+        <v>2958</v>
+      </c>
+      <c r="E129" s="18"/>
+      <c r="F129" s="8">
+        <v>1089</v>
+      </c>
+      <c r="G129" s="9"/>
+      <c r="H129" s="8">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="311">
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="D137:E137"/>
+  <mergeCells count="253">
     <mergeCell ref="A128:C128"/>
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="A129:C129"/>
     <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:E132"/>
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:E123"/>
     <mergeCell ref="A124:C124"/>

--- a/input_data/abutments/abutments_unsh.xlsx
+++ b/input_data/abutments/abutments_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/abutments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/abutments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516EB762-0711-2941-9C04-FEF219A0138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F47A170-6D1D-9F47-A708-A327D535CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>Отбор:</t>
   </si>
@@ -77,12 +77,18 @@
     <t>35001уп2 Абатмент временный LM (собств. разр.) Ankylos X D=4.1 G/H=1.2 с позиционером без внутр. резьбы V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35975 Абатмент временный LM (собств. разр.) MegaGen AnyRidge D=4 G/H=2 с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
     <t>35790уп2 Абатмент временный LM (собств. разр.) Straumann Bone Level NC (3.3) D=4 G/H=1 с позиционером без внутр. резьбы V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>35973 Абатмент временный LM (собств. разр.) Osstem Implant Mini (3.5) D=4 G/H=1 с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>35380опт Абатмент временный LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
+  </si>
+  <si>
     <t>35965 Абатмент временный LM (собств. разр.) Implantium D=4.5 G/H=1.4 с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -95,84 +101,81 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
+    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
+  </si>
+  <si>
     <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
   </si>
   <si>
+    <t>35560МOуп2 Абатмент выжигаемый LM LENMIRIOT Multi-Unit (отв. Osstem) без позиционера / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
   </si>
   <si>
-    <t>35600М Абатмент выжигаемый LM Mis Multi-Unit без позиционера</t>
-  </si>
-  <si>
-    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
-  </si>
-  <si>
     <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
   </si>
   <si>
     <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
+  </si>
+  <si>
+    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+  </si>
+  <si>
+    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
+  </si>
+  <si>
     <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
   </si>
   <si>
-    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
-  </si>
-  <si>
     <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
   </si>
   <si>
-    <t>35560М Абатмент выжигаемый LM Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) /</t>
-  </si>
-  <si>
-    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
+    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
+  </si>
+  <si>
+    <t>35557 Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) с позиционером</t>
   </si>
   <si>
     <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
   </si>
   <si>
-    <t>35527 Абатмент выжигаемый LM Xive 3.8 с позиционером</t>
-  </si>
-  <si>
-    <t>35528 Абатмент выжигаемый LM Xive 4.5 с позиционером</t>
-  </si>
-  <si>
-    <t>35526 Абатмент выжигаемый LM Xive 3.4 с позиционером</t>
-  </si>
-  <si>
-    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
+    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
   </si>
   <si>
     <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
   </si>
   <si>
-    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
     <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
   </si>
   <si>
@@ -182,21 +185,9 @@
     <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
   </si>
   <si>
-    <t>35509 Абатмент выжигаемый LM MegaGen AnyRidge с позиционером</t>
-  </si>
-  <si>
-    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
-    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
-  </si>
-  <si>
     <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
   </si>
   <si>
-    <t>35560V2 Абатмент выжигаемый LM Nobel Multi-Unit без позиционера</t>
-  </si>
-  <si>
     <t>Абатмент приливаемый</t>
   </si>
   <si>
@@ -209,30 +200,24 @@
     <t>35202СБуп2 Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>35796СБуп2 Абатмент приливаемый LM (собств. разр.) Osstem Implant Mini (3.5) D=4.5 G/H=1.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>35200СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 с позиционером V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
     <t>35202СБуп Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
+    <t>35797СБопт Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35797СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
+  </si>
+  <si>
+    <t>35574СБ Абатмент приливаемый LM (собств. разр.) Mis SP (3.75/4.2) D=4.5 G/H=0.6 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
+  </si>
+  <si>
     <t>35201СБопт Абатмент приливаемый LM (собств. разр.) Osstem Implant Mini (3.5) D=4.5 G/H=1.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>35797СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
-  </si>
-  <si>
-    <t>35574СБ Абатмент приливаемый LM (собств. разр.) Mis SP (3.75/4.2) D=4.5 G/H=0.6 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
-  </si>
-  <si>
-    <t>35798СБуп2 Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 без позиционера V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35797СБопт Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>35796СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Mini (3.5) D=4.5 G/H=1.5 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
@@ -242,10 +227,16 @@
     <t>35214 Абатмент приливаемый LM (собств. разр.) MegaGen AnyRidge D=4.5 G/H=1.35 с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>35213СБопт Абатмент приливаемый LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8) D=4.5 G/H=1.3 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35221СБопт Абатмент приливаемый LM (собств. разр.) Straumann SynOcta RN (4.8) D=5.2 G/H=1.2 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>35215СБуп2 Абатмент приливаемый LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 G/H=1.1 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>35797СБуп2 Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
+    <t>35218СБопт Абатмент приливаемый LM (собств. разр.) Straumann Bone Level NC (3.3) D=4.5 G/H=1.25 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>35206СБ Абатмент приливаемый LM (собств. разр.) Astra Tech 3.5/4.0 D=4.5 G/H=1.2 с позиционером V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
@@ -269,142 +260,205 @@
     <t>35005 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTA4631) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>35042 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35078Пуп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35076 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35041 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1 / Б</t>
+  </si>
+  <si>
+    <t>35020уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTAS4621) V.1 /</t>
+  </si>
+  <si>
+    <t>35041уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1</t>
+  </si>
+  <si>
+    <t>35041П Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) ПОЛИР.</t>
+  </si>
+  <si>
+    <t>35078опт Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
+  </si>
+  <si>
+    <t>35154опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=1 с позиционером без внутр. резьбы (арт. GSTA5610WH) V.1 /</t>
+  </si>
+  <si>
+    <t>35028опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. DAB4510HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35079опт Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB5525HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
+  </si>
+  <si>
+    <t>35079уп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB5525HL) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35004 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35150опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=4 с позиционером без внутр. резьбы (арт. GSTA5420WH) V.</t>
+  </si>
+  <si>
+    <t>35022уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH)</t>
+  </si>
+  <si>
+    <t>35042опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
+  </si>
+  <si>
     <t>35019опт Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=3 с позиционером с внутр. резьбой (арт. TLA3 5350) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
   </si>
   <si>
-    <t>35042 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35076 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35078Пуп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35041 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1 / Б</t>
-  </si>
-  <si>
-    <t>35020уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTAS4621) V.1 /</t>
-  </si>
-  <si>
-    <t>35041уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1</t>
-  </si>
-  <si>
-    <t>35041П Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) ПОЛИР.</t>
-  </si>
-  <si>
-    <t>35004 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35022уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH)</t>
-  </si>
-  <si>
-    <t>35079уп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB5525HL) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35016опт Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.6 с позиционером с внутр. резьбой (арт. TLA5030) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
+    <t>35151опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=3 H=4 с позиционером без внутр. резьбы (арт. GSTA5430WH) V.</t>
+  </si>
+  <si>
+    <t>35021опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTAS4631) V.1 /</t>
+  </si>
+  <si>
+    <t>35009опт Абатмент прямой LM (копия оригинала) Dentis Regular D=5.5 G/H=1 H=5.5 с позиционером без внутр. резьбы (арт. DSSA5510PCTS) V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>35004уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>35076опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
   </si>
   <si>
     <t>35133опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.6 G/H=5 с позиционером без внутр. резьбы (арт. GSTAS4651WH) V.1</t>
   </si>
   <si>
-    <t>35040опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=4.5 H=5.5 с позиционером без внутр. резьбы (арт. DAB4545HL) V.1 / ВКЛ. 1 ВИНТ, ИМ А</t>
-  </si>
-  <si>
     <t>35016 Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.6 с позиционером с внутр. резьбой (арт. TLA5030) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>35004уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / 2 ВИНТА,</t>
+    <t>35080опт Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=3.5 с позиционером без внутр. резьбы (арт. DAB5535HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
   </si>
   <si>
     <t>35007уп2 Абатмент прямой LM (копия оригинала) Dentis Regular D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. DSSA4520PCTS) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35012опт Абатмент прямой LM (копия оригинала) Dentis Regular D=6.5 G/H=1 H=5.5 с позиционером без внутр. резьбы (арт. DSSA6510PCTS) V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>35115 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.6 G/H=4 с позиционером без внутр. резьбы (арт. GSTA4641WH) V.1</t>
+  </si>
+  <si>
     <t>35078 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>35150опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=4 с позиционером без внутр. резьбы (арт. GSTA5420WH) V.</t>
-  </si>
-  <si>
-    <t>35115 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.6 G/H=4 с позиционером без внутр. резьбы (арт. GSTA4641WH) V.1</t>
-  </si>
-  <si>
     <t>Абатмент прямой Multi-unit</t>
   </si>
   <si>
+    <t>36092уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2 V.1 ВКЛ МАН</t>
+  </si>
+  <si>
     <t>36091 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 3.8 / 4.3 D=4.8 G/H=1 V.1 / Б</t>
   </si>
   <si>
+    <t>36093уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 ВКЛ МАН</t>
+  </si>
+  <si>
+    <t>36093 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 / БЕЗ МАН</t>
+  </si>
+  <si>
+    <t>36091уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 3.8 / 4.3 D=4.8 G/H=1 V.1 В</t>
+  </si>
+  <si>
     <t>36092 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2 V.1 / БЕЗ МАН</t>
   </si>
   <si>
-    <t>36093 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 / БЕЗ МАН</t>
-  </si>
-  <si>
     <t>я НЕ ИСП !!!35576Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=2.5 (арт. MU5025HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
   </si>
   <si>
     <t>44044 Абатмент прямой MU LM (собств. разр.) Mis SP (3.75/4.2) D=4.8 G/H=3 V.1 / БЕЗ МАНЖЕТЫ</t>
   </si>
   <si>
+    <t>36089уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
+  </si>
+  <si>
     <t>44045уп Абатмент прямой MU LM (собств. разр.) Astra Tech 3.5/4.0 D=4.8 G/H=1 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
   </si>
   <si>
     <t>35575Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=1.5 (арт. MU5015HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
   </si>
   <si>
+    <t>36089 Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
+  </si>
+  <si>
+    <t>35385 Абатмент прямой MU LM (собств. разр.) Nobel Active RP (4.5) D=4.8 G/H=1 V.1 / БЕЗ МАНЖЕТЫ</t>
+  </si>
+  <si>
     <t>36088 Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=1 V.1 / БЕЗ МАНЖЕТЫ</t>
   </si>
   <si>
     <t>Абатмент угловой</t>
   </si>
   <si>
+    <t>35046опт Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA452</t>
+  </si>
+  <si>
     <t>35046уп2 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA452</t>
   </si>
   <si>
     <t>35350 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA5020AWH</t>
   </si>
   <si>
-    <t>35048опт Абатмент угловой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.7 Угол=15 с позиционером с внутр. резьбой (арт. TLA 15 5090) V.1 / ВКЛ.</t>
-  </si>
-  <si>
     <t>я НЕ ИСП !!!350461уп2 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы</t>
   </si>
   <si>
+    <t>35047опт Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=4 Угол=17 с позиционером без внутр. резьбы (арт. GSAA454</t>
+  </si>
+  <si>
     <t>Абатмент угловой Multi-unit</t>
   </si>
   <si>
     <t>36086уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
-    <t>36086 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+    <t>36084уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>36087уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
     <t>36084 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>36094уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>36095уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>36097уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>36096уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
     <t>36094 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>36087 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36085 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>36080 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>36096опт Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
+    <t>36096 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>44038 Абатмент угловой MU LM (собств. разр.) Mis SP (3.75/4.2) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>36094опт Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>36095 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>36096 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>44038 Абатмент угловой MU LM (собств. разр.) Mis SP (3.75/4.2) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+    <t>35381 Абатмент угловой MU LM (собств. разр.) Nobel Active RP (4.5) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>Временный цилиндр</t>
@@ -897,7 +951,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +1024,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -978,7 +1032,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1106,15 +1160,13 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="6">
-        <v>10</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1124,13 +1176,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1140,13 +1194,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1172,65 +1226,65 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="6">
-        <v>100</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15">
-        <v>399</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="4">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6">
+        <v>100</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17">
-        <v>48</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6">
-        <v>48</v>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15">
+        <v>405</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="4">
+        <v>15</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4">
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1240,13 +1294,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1256,79 +1310,79 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="6">
-        <v>10</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6">
+        <v>10</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1338,13 +1392,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1363,22 +1417,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="6">
-        <v>5</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1388,42 +1440,44 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
         <v>10</v>
@@ -1436,13 +1490,13 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1452,13 +1506,13 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1468,13 +1522,13 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1484,13 +1538,13 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1500,13 +1554,13 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1516,29 +1570,29 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1548,13 +1602,13 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1596,13 +1650,13 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1628,13 +1682,13 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1660,13 +1714,13 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1685,36 +1739,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17">
-        <v>1</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6">
-        <v>1</v>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15">
+        <v>461</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="4">
+        <v>3</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4">
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1724,47 +1780,45 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15">
-        <v>544</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="4">
-        <v>26</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4">
-        <v>518</v>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17">
+        <v>70</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1774,13 +1828,13 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1790,13 +1844,13 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1806,13 +1860,13 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1822,15 +1876,13 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="6">
-        <v>3</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1840,13 +1892,13 @@
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1856,13 +1908,13 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1872,13 +1924,13 @@
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1888,13 +1940,13 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1904,13 +1956,13 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1920,13 +1972,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1936,13 +1988,13 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1952,13 +2004,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1968,13 +2020,13 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1987,26 +2039,30 @@
         <v>4</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="6">
+        <v>3</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17">
-        <v>2</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6">
-        <v>2</v>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15">
+        <v>375</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="4">
+        <v>148</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4">
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2016,15 +2072,15 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="6">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2034,7 +2090,7 @@
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="6">
@@ -2042,25 +2098,25 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15">
-        <v>344</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="4">
-        <v>148</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="4">
-        <v>196</v>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17">
+        <v>26</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="6">
+        <v>13</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2070,15 +2126,13 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="6">
-        <v>67</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2088,15 +2142,15 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2106,15 +2160,15 @@
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2124,13 +2178,13 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2140,15 +2194,15 @@
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="17">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2158,13 +2212,13 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2174,15 +2228,13 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E79" s="17"/>
-      <c r="F79" s="6">
-        <v>2</v>
-      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2192,15 +2244,13 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E80" s="17"/>
-      <c r="F80" s="6">
-        <v>30</v>
-      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2210,13 +2260,13 @@
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2226,13 +2276,13 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2274,13 +2324,13 @@
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2290,10 +2340,12 @@
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E86" s="17"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="6">
+        <v>8</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
         <v>5</v>
@@ -2306,12 +2358,10 @@
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="17">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E87" s="17"/>
-      <c r="F87" s="6">
-        <v>17</v>
-      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
         <v>5</v>
@@ -2324,12 +2374,10 @@
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E88" s="17"/>
-      <c r="F88" s="6">
-        <v>8</v>
-      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
         <v>5</v>
@@ -2342,13 +2390,15 @@
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="17">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E89" s="17"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="6">
+        <v>17</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2358,13 +2408,13 @@
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2374,13 +2424,13 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2390,13 +2440,13 @@
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2406,15 +2456,13 @@
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E93" s="17"/>
-      <c r="F93" s="6">
-        <v>5</v>
-      </c>
+      <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2424,13 +2472,13 @@
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2440,15 +2488,15 @@
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2458,13 +2506,13 @@
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="17"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2474,29 +2522,29 @@
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
       <c r="D97" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15">
-        <v>131</v>
-      </c>
-      <c r="E98" s="15"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="4">
-        <v>131</v>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="17">
+        <v>2</v>
+      </c>
+      <c r="E98" s="17"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2506,13 +2554,13 @@
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2522,13 +2570,13 @@
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="17">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2538,13 +2586,13 @@
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="17">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2554,13 +2602,13 @@
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2570,29 +2618,31 @@
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E103" s="17"/>
-      <c r="F103" s="7"/>
+      <c r="F103" s="6">
+        <v>2</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="17">
-        <v>4</v>
-      </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="6">
-        <v>4</v>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15">
+        <v>672</v>
+      </c>
+      <c r="E104" s="15"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="4">
+        <v>672</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2602,13 +2652,13 @@
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="17">
-        <v>2</v>
+        <v>535</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <v>2</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2618,31 +2668,29 @@
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="17">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E106" s="17"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="15">
-        <v>20</v>
-      </c>
-      <c r="E107" s="15"/>
-      <c r="F107" s="4">
-        <v>2</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="4">
-        <v>18</v>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17">
+        <v>22</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6">
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2652,15 +2700,13 @@
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="17">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E108" s="17"/>
-      <c r="F108" s="6">
-        <v>2</v>
-      </c>
+      <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2670,13 +2716,13 @@
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="17">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2686,13 +2732,13 @@
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="17">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2702,31 +2748,29 @@
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
       <c r="D111" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="15">
-        <v>378</v>
-      </c>
-      <c r="E112" s="15"/>
-      <c r="F112" s="4">
-        <v>78</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="4">
-        <v>300</v>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="17">
+        <v>6</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2736,15 +2780,13 @@
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
       <c r="D113" s="17">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="E113" s="17"/>
-      <c r="F113" s="6">
-        <v>78</v>
-      </c>
+      <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="6">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2754,13 +2796,13 @@
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
       <c r="D114" s="17">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2770,13 +2812,13 @@
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="17">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="6">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2786,13 +2828,13 @@
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="17">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2802,13 +2844,13 @@
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2818,29 +2860,31 @@
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="17">
-        <v>6</v>
-      </c>
-      <c r="E119" s="17"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="6">
-        <v>6</v>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15">
+        <v>27</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="F119" s="4">
+        <v>2</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2850,13 +2894,13 @@
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
       <c r="D120" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2866,13 +2910,15 @@
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E121" s="17"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="6">
+        <v>2</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2882,13 +2928,13 @@
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2907,110 +2953,438 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="14" t="s">
+    <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="15">
-        <v>16</v>
-      </c>
-      <c r="E124" s="15"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="16" t="s">
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="17">
+        <v>1</v>
+      </c>
+      <c r="E124" s="17"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="17">
-        <v>16</v>
-      </c>
-      <c r="E125" s="17"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="14" t="s">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15">
+        <v>847</v>
+      </c>
+      <c r="E125" s="15"/>
+      <c r="F125" s="4">
+        <v>78</v>
+      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="4">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15">
-        <v>183</v>
-      </c>
-      <c r="E126" s="15"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="4">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="17">
+        <v>739</v>
+      </c>
+      <c r="E126" s="17"/>
+      <c r="F126" s="6">
+        <v>78</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
       <c r="D127" s="17">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E127" s="17"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A128" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
       <c r="D128" s="17">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E128" s="17"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="17">
+        <v>12</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="17">
+        <v>10</v>
+      </c>
+      <c r="E130" s="17"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="17">
+        <v>10</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="17">
+        <v>10</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="17">
+        <v>10</v>
+      </c>
+      <c r="E133" s="17"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="17">
+        <v>9</v>
+      </c>
+      <c r="E134" s="17"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="17">
+        <v>6</v>
+      </c>
+      <c r="E135" s="17"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="17">
+        <v>6</v>
+      </c>
+      <c r="E136" s="17"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="17">
         <v>3</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="18">
-        <v>2958</v>
-      </c>
-      <c r="E129" s="18"/>
-      <c r="F129" s="8">
-        <v>1089</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="8">
-        <v>1869</v>
+      <c r="E137" s="17"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="17">
+        <v>2</v>
+      </c>
+      <c r="E138" s="17"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="17">
+        <v>2</v>
+      </c>
+      <c r="E139" s="17"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="17">
+        <v>1</v>
+      </c>
+      <c r="E140" s="17"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="17">
+        <v>1</v>
+      </c>
+      <c r="E141" s="17"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15">
+        <v>16</v>
+      </c>
+      <c r="E142" s="15"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="17">
+        <v>16</v>
+      </c>
+      <c r="E143" s="17"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15">
+        <v>103</v>
+      </c>
+      <c r="E144" s="15"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="17">
+        <v>72</v>
+      </c>
+      <c r="E145" s="17"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="17">
+        <v>31</v>
+      </c>
+      <c r="E146" s="17"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="18">
+        <v>3855</v>
+      </c>
+      <c r="E147" s="18"/>
+      <c r="F147" s="8">
+        <v>1066</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="8">
+        <v>2789</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="253">
+  <mergeCells count="289">
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="D137:E137"/>
     <mergeCell ref="A128:C128"/>
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="A129:C129"/>
     <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:E132"/>
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:E123"/>
     <mergeCell ref="A124:C124"/>

--- a/input_data/abutments/abutments_unsh.xlsx
+++ b/input_data/abutments/abutments_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/abutments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/abutments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F47A170-6D1D-9F47-A708-A327D535CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E990F-D323-F34F-BFE0-9EF2532744AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,6 +59,9 @@
     <t>35001уп Абатмент временный LM (собств. разр.) Ankylos X D=4.1 G/H=1.2 с позиционером без внутр. резьбы V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
+    <t>35379уп2 Абатмент временный LM (собств. разр.) Osstem Implant Mini (3.5) D=4 G/H=3 с позиционером без внутр. резьбы V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35000уп Абатмент временный LM (собств. разр.) Implantium D=4.5 G/H=1.4 с позиционером без внутр. резьбы V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
@@ -68,12 +71,15 @@
     <t>35380 Абатмент временный LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>35974опт Абатмент временный LM (собств. разр.) MegaGen AnyOne D=4.5 G/H=1.5 с позиционером без внутр. резьбы V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35014 Абатмент временный LM (копия оригинала) Astra Tech 3.5/4.0 D=4.1 G/H=1 с позиционером без внутр. резьбы (арт. 24281) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>35025 Абатмент временный LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTTA4510TH) V.1</t>
   </si>
   <si>
-    <t>35014 Абатмент временный LM (копия оригинала) Astra Tech 3.5/4.0 D=4.1 G/H=1 с позиционером без внутр. резьбы (арт. 24281) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>35001уп2 Абатмент временный LM (собств. разр.) Ankylos X D=4.1 G/H=1.2 с позиционером без внутр. резьбы V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
@@ -83,10 +89,13 @@
     <t>35790уп2 Абатмент временный LM (собств. разр.) Straumann Bone Level NC (3.3) D=4 G/H=1 с позиционером без внутр. резьбы V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35380опт Абатмент временный LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
+  </si>
+  <si>
     <t>35973 Абатмент временный LM (собств. разр.) Osstem Implant Mini (3.5) D=4 G/H=1 с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>35380опт Абатмент временный LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
+    <t>35379опт Абатмент временный LM (собств. разр.) Osstem Implant Mini (3.5) D=4 G/H=3 с позиционером без внутр. резьбы V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>35965 Абатмент временный LM (собств. разр.) Implantium D=4.5 G/H=1.4 с позиционером без внутр. резьбы V.1</t>
@@ -101,55 +110,79 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
+    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
+  </si>
+  <si>
+    <t>35511Муп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
   </si>
   <si>
-    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
-  </si>
-  <si>
-    <t>35560МOуп2 Абатмент выжигаемый LM LENMIRIOT Multi-Unit (отв. Osstem) без позиционера / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
   </si>
   <si>
+    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
   </si>
   <si>
-    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
   </si>
   <si>
-    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
+    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+  </si>
+  <si>
+    <t>35905М Абатмент выжигаемый LM Implantium Multi-Unit 4.5 без позиционера</t>
   </si>
   <si>
     <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
   </si>
   <si>
-    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
-    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
+  </si>
+  <si>
+    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
+  </si>
+  <si>
+    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
   </si>
   <si>
     <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
   </si>
   <si>
-    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
+  </si>
+  <si>
+    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
+  </si>
+  <si>
+    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
+  </si>
+  <si>
+    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
   </si>
   <si>
     <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
@@ -158,36 +191,6 @@
     <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
   </si>
   <si>
-    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
-  </si>
-  <si>
-    <t>35557 Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) с позиционером</t>
-  </si>
-  <si>
-    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
-    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
-  </si>
-  <si>
-    <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
-  </si>
-  <si>
-    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
-  </si>
-  <si>
-    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
-  </si>
-  <si>
-    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
-  </si>
-  <si>
     <t>Абатмент приливаемый</t>
   </si>
   <si>
@@ -200,18 +203,24 @@
     <t>35202СБуп2 Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35202СБуп Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
     <t>35200СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 с позиционером V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
-    <t>35202СБуп Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
     <t>35797СБопт Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
+    <t>35798СБ Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
+  </si>
+  <si>
     <t>35797СБ Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
+    <t>35200СБуп2 Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35574СБ Абатмент приливаемый LM (собств. разр.) Mis SP (3.75/4.2) D=4.5 G/H=0.6 без позиционера V.1 / В СБОРЕ С КОЛПАЧКОМ</t>
   </si>
   <si>
@@ -251,141 +260,123 @@
     <t>35022 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH) V.1</t>
   </si>
   <si>
+    <t>35003 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTA4611) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35005 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTA4631) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35042 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35076 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35078Пуп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35028 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. DAB4510HL) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>35003 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTA4611) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35005 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTA4631) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35042 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35078Пуп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35076 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>35041 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1 / Б</t>
   </si>
   <si>
-    <t>35020уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTAS4621) V.1 /</t>
-  </si>
-  <si>
-    <t>35041уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1</t>
-  </si>
-  <si>
     <t>35041П Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) ПОЛИР.</t>
   </si>
   <si>
-    <t>35078опт Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
-  </si>
-  <si>
     <t>35154опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=1 с позиционером без внутр. резьбы (арт. GSTA5610WH) V.1 /</t>
   </si>
   <si>
-    <t>35028опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. DAB4510HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>35042уп2 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35076уп2 Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35022уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH)</t>
+  </si>
+  <si>
+    <t>35076опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
+  </si>
+  <si>
+    <t>35004 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35019уп2 Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=3 с позиционером с внутр. резьбой (арт. TLA3 5350) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35079уп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB5525HL) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35018уп2 Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=2 с позиционером с внутр. резьбой (арт. TLA2 5180) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35042опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
+  </si>
+  <si>
+    <t>35150опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=4 с позиционером без внутр. резьбы (арт. GSTA5420WH) V.</t>
+  </si>
+  <si>
+    <t>35009опт Абатмент прямой LM (копия оригинала) Dentis Regular D=5.5 G/H=1 H=5.5 с позиционером без внутр. резьбы (арт. DSSA5510PCTS) V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>35133опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.6 G/H=5 с позиционером без внутр. резьбы (арт. GSTAS4651WH) V.1</t>
+  </si>
+  <si>
+    <t>35016 Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.6 с позиционером с внутр. резьбой (арт. TLA5030) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>35079опт Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB5525HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
   </si>
   <si>
-    <t>35079уп2 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB5525HL) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35004 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35150опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=4 с позиционером без внутр. резьбы (арт. GSTA5420WH) V.</t>
-  </si>
-  <si>
-    <t>35022уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH)</t>
-  </si>
-  <si>
-    <t>35042опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
-  </si>
-  <si>
-    <t>35019опт Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=3 с позиционером с внутр. резьбой (арт. TLA3 5350) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
-  </si>
-  <si>
-    <t>35151опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=3 H=4 с позиционером без внутр. резьбы (арт. GSTA5430WH) V.</t>
-  </si>
-  <si>
-    <t>35021опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTAS4631) V.1 /</t>
-  </si>
-  <si>
-    <t>35009опт Абатмент прямой LM (копия оригинала) Dentis Regular D=5.5 G/H=1 H=5.5 с позиционером без внутр. резьбы (арт. DSSA5510PCTS) V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
     <t>35004уп2 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / 2 ВИНТА,</t>
   </si>
   <si>
-    <t>35076опт Абатмент прямой LM (копия оригинала) Implantium D=4.5 G/H=2.5 с позиционером без внутр. резьбы (арт. DAB4525HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
-  </si>
-  <si>
-    <t>35133опт Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.6 G/H=5 с позиционером без внутр. резьбы (арт. GSTAS4651WH) V.1</t>
-  </si>
-  <si>
-    <t>35016 Абатмент прямой LM (копия оригинала) Alpha Bio Internal D=4.5 G/H=1.6 с позиционером с внутр. резьбой (арт. TLA5030) V.1 / БЕЗ ВИНТА</t>
+    <t>35007уп2 Абатмент прямой LM (копия оригинала) Dentis Regular D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. DSSA4520PCTS) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35012опт Абатмент прямой LM (копия оригинала) Dentis Regular D=6.5 G/H=1 H=5.5 с позиционером без внутр. резьбы (арт. DSSA6510PCTS) V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>35078 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>35080опт Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=3.5 с позиционером без внутр. резьбы (арт. DAB5535HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
   </si>
   <si>
-    <t>35007уп2 Абатмент прямой LM (копия оригинала) Dentis Regular D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. DSSA4520PCTS) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35012опт Абатмент прямой LM (копия оригинала) Dentis Regular D=6.5 G/H=1 H=5.5 с позиционером без внутр. резьбы (арт. DSSA6510PCTS) V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
     <t>35115 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.6 G/H=4 с позиционером без внутр. резьбы (арт. GSTA4641WH) V.1</t>
   </si>
   <si>
-    <t>35078 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=1.5 с позиционером без внутр. резьбы (арт. DAB5515HL) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>Абатмент прямой Multi-unit</t>
   </si>
   <si>
     <t>36092уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2 V.1 ВКЛ МАН</t>
   </si>
   <si>
+    <t>36093уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 ВКЛ МАН</t>
+  </si>
+  <si>
+    <t>36092 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2 V.1 / БЕЗ МАН</t>
+  </si>
+  <si>
     <t>36091 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 3.8 / 4.3 D=4.8 G/H=1 V.1 / Б</t>
   </si>
   <si>
-    <t>36093уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 ВКЛ МАН</t>
-  </si>
-  <si>
     <t>36093 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 / БЕЗ МАН</t>
   </si>
   <si>
-    <t>36091уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 3.8 / 4.3 D=4.8 G/H=1 V.1 В</t>
-  </si>
-  <si>
-    <t>36092 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2 V.1 / БЕЗ МАН</t>
-  </si>
-  <si>
     <t>я НЕ ИСП !!!35576Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=2.5 (арт. MU5025HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
   </si>
   <si>
     <t>44044 Абатмент прямой MU LM (собств. разр.) Mis SP (3.75/4.2) D=4.8 G/H=3 V.1 / БЕЗ МАНЖЕТЫ</t>
   </si>
   <si>
-    <t>36089уп Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
-  </si>
-  <si>
     <t>44045уп Абатмент прямой MU LM (собств. разр.) Astra Tech 3.5/4.0 D=4.8 G/H=1 V.1 ВКЛ МАНЖЕТУ/ УПАК</t>
   </si>
   <si>
     <t>35575Пуп Абатмент прямой MU LM (копия оригинала) MegaGen AnyOne Multi-Unit Type S D=5 G/H=1.5 (арт. MU5015HT) ПОЛИР. V.1.P / 1 ВИНТ, УПАК</t>
   </si>
   <si>
-    <t>36089 Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
-  </si>
-  <si>
     <t>35385 Абатмент прямой MU LM (собств. разр.) Nobel Active RP (4.5) D=4.8 G/H=1 V.1 / БЕЗ МАНЖЕТЫ</t>
   </si>
   <si>
@@ -395,9 +386,6 @@
     <t>Абатмент угловой</t>
   </si>
   <si>
-    <t>35046опт Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA452</t>
-  </si>
-  <si>
     <t>35046уп2 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA452</t>
   </si>
   <si>
@@ -407,16 +395,16 @@
     <t>я НЕ ИСП !!!350461уп2 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 Угол=17 с позиционером без внутр. резьбы</t>
   </si>
   <si>
-    <t>35047опт Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=4 Угол=17 с позиционером без внутр. резьбы (арт. GSAA454</t>
-  </si>
-  <si>
     <t>Абатмент угловой Multi-unit</t>
   </si>
   <si>
     <t>36086уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
-    <t>36084уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+    <t>36085уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>36094 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>36087уп Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
@@ -425,34 +413,16 @@
     <t>36084 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>36094уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>36095уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>36097уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>36096уп Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>36094 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>36080 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>36096опт Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>36096 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>36097 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>44038 Абатмент угловой MU LM (собств. разр.) Mis SP (3.75/4.2) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>36094опт Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>36095 Абатмент угловой MU LM (собств. разр.) Implantium D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
@@ -951,7 +921,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +994,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>949</v>
+        <v>990</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -1032,7 +1002,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1074,15 +1044,13 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1092,13 +1060,15 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
+        <v>25</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6">
         <v>10</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1108,15 +1078,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>452</v>
+        <v>10</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="6">
-        <v>445</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1126,15 +1094,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="6">
-        <v>255</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1144,13 +1110,15 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6">
+        <v>255</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1160,13 +1128,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>5</v>
+        <v>452</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6">
+        <v>445</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1176,15 +1146,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1194,13 +1162,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1210,13 +1178,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1226,13 +1196,13 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1242,13 +1212,13 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1258,81 +1228,81 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="6">
-        <v>100</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15">
-        <v>405</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="4">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="17"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6">
+        <v>100</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17">
-        <v>38</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6">
-        <v>38</v>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15">
+        <v>380</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="4">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4">
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1342,47 +1312,45 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="6">
-        <v>10</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1392,29 +1360,31 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="6">
+        <v>10</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1424,13 +1394,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1440,13 +1410,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1465,22 +1435,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="6">
-        <v>5</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1499,23 +1467,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
@@ -1531,20 +1501,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1570,16 +1540,16 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>43</v>
       </c>
@@ -1650,13 +1620,13 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1714,32 +1684,32 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>53</v>
       </c>
@@ -1755,38 +1725,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="14" t="s">
+    <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15">
-        <v>461</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="4">
-        <v>3</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="4">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="16" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17">
-        <v>174</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6">
-        <v>174</v>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15">
+        <v>546</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="4">
+        <v>43</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4">
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1796,13 +1766,13 @@
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>107</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1812,13 +1782,13 @@
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="17">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1828,13 +1798,13 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1844,13 +1814,13 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1860,13 +1830,13 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1876,13 +1846,13 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1892,13 +1862,13 @@
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1908,13 +1878,13 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1924,13 +1894,15 @@
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E61" s="17"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="6">
+        <v>40</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1940,13 +1912,13 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1956,13 +1928,13 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1972,13 +1944,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1988,13 +1960,13 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2004,13 +1976,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2020,13 +1992,13 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2036,33 +2008,29 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="6">
-        <v>3</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15">
-        <v>375</v>
-      </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="4">
-        <v>148</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="4">
-        <v>227</v>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17">
+        <v>2</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2072,15 +2040,13 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E70" s="17"/>
-      <c r="F70" s="6">
-        <v>67</v>
-      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2090,7 +2056,7 @@
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="6">
@@ -2098,25 +2064,25 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17">
-        <v>26</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="6">
-        <v>13</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6">
-        <v>13</v>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15">
+        <v>379</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="4">
+        <v>171</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4">
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2126,13 +2092,15 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="6">
+        <v>67</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2142,15 +2110,15 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2163,12 +2131,10 @@
         <v>12</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="6">
-        <v>2</v>
-      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2178,13 +2144,15 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2194,11 +2162,11 @@
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="17">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="6">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
@@ -2212,13 +2180,15 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E78" s="17"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="6">
+        <v>30</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2228,13 +2198,13 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2244,13 +2214,15 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E80" s="17"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="6">
+        <v>13</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2260,13 +2232,13 @@
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2308,13 +2280,15 @@
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E84" s="17"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="6">
+        <v>9</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2324,10 +2298,12 @@
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="17">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E85" s="17"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="6">
+        <v>14</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
         <v>5</v>
@@ -2340,11 +2316,11 @@
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
@@ -2390,12 +2366,10 @@
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="17">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E89" s="17"/>
-      <c r="F89" s="6">
-        <v>17</v>
-      </c>
+      <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
         <v>5</v>
@@ -2408,13 +2382,15 @@
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E90" s="17"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="6">
+        <v>8</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2424,13 +2400,13 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2440,13 +2416,13 @@
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2456,13 +2432,13 @@
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2488,12 +2464,10 @@
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E95" s="17"/>
-      <c r="F95" s="6">
-        <v>5</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
         <v>2</v>
@@ -2538,10 +2512,12 @@
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E98" s="17"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="6">
+        <v>5</v>
+      </c>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
         <v>2</v>
@@ -2586,10 +2562,12 @@
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101" s="17"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="6">
+        <v>2</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
         <v>1</v>
@@ -2618,12 +2596,10 @@
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103" s="17"/>
-      <c r="F103" s="6">
-        <v>2</v>
-      </c>
+      <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
         <v>1</v>
@@ -2636,13 +2612,13 @@
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15">
-        <v>672</v>
+        <v>629</v>
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="4">
-        <v>672</v>
+        <v>629</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2652,13 +2628,13 @@
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="17">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <v>535</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2668,13 +2644,13 @@
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="17">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E106" s="17"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2684,13 +2660,13 @@
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
       <c r="D107" s="17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2700,13 +2676,13 @@
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="17">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E108" s="17"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2716,13 +2692,13 @@
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2732,13 +2708,13 @@
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="17">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2764,13 +2740,13 @@
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2780,13 +2756,13 @@
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
       <c r="D113" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2796,13 +2772,13 @@
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
       <c r="D114" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2812,29 +2788,31 @@
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15">
+        <v>18</v>
+      </c>
+      <c r="E116" s="15"/>
+      <c r="F116" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="17">
-        <v>2</v>
-      </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="6">
-        <v>2</v>
+      <c r="G116" s="5"/>
+      <c r="H116" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2844,13 +2822,15 @@
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E117" s="17"/>
-      <c r="F117" s="7"/>
+      <c r="F117" s="6">
+        <v>2</v>
+      </c>
       <c r="G117" s="7"/>
       <c r="H117" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2860,47 +2840,47 @@
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15">
-        <v>27</v>
-      </c>
-      <c r="E119" s="15"/>
-      <c r="F119" s="4">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="17">
         <v>2</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="16" t="s">
+      <c r="E119" s="17"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="17">
-        <v>8</v>
-      </c>
-      <c r="E120" s="17"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="6">
-        <v>8</v>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15">
+        <v>768</v>
+      </c>
+      <c r="E120" s="15"/>
+      <c r="F120" s="4">
+        <v>78</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="4">
+        <v>690</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2910,15 +2890,15 @@
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="17">
-        <v>10</v>
+        <v>701</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="6">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
-        <v>8</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2928,13 +2908,13 @@
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="17">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2944,13 +2924,13 @@
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
       <c r="D123" s="17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E123" s="17"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2960,31 +2940,29 @@
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E124" s="17"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="15">
-        <v>847</v>
-      </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="4">
-        <v>78</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="4">
-        <v>769</v>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="17">
+        <v>7</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2994,15 +2972,13 @@
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
       <c r="D126" s="17">
-        <v>739</v>
+        <v>6</v>
       </c>
       <c r="E126" s="17"/>
-      <c r="F126" s="6">
-        <v>78</v>
-      </c>
+      <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="6">
-        <v>661</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3012,13 +2988,13 @@
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
       <c r="D127" s="17">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E127" s="17"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3028,13 +3004,13 @@
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
       <c r="D128" s="17">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E128" s="17"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3044,13 +3020,13 @@
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
       <c r="D129" s="17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E129" s="17"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3060,13 +3036,13 @@
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
       <c r="D130" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E130" s="17"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3076,29 +3052,29 @@
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
       <c r="D131" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E131" s="17"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="17">
-        <v>10</v>
-      </c>
-      <c r="E132" s="17"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="6">
-        <v>10</v>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15">
+        <v>16</v>
+      </c>
+      <c r="E132" s="15"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3108,263 +3084,83 @@
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
       <c r="D133" s="17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E133" s="17"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="17">
-        <v>9</v>
-      </c>
-      <c r="E134" s="17"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15">
+        <v>110</v>
+      </c>
+      <c r="E134" s="15"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
       <c r="D135" s="17">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E135" s="17"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
       <c r="D136" s="17">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E136" s="17"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E137" s="17"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="17">
-        <v>2</v>
-      </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="17">
-        <v>2</v>
-      </c>
-      <c r="E139" s="17"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="17">
-        <v>1</v>
-      </c>
-      <c r="E140" s="17"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="17">
-        <v>1</v>
-      </c>
-      <c r="E141" s="17"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="15">
-        <v>16</v>
-      </c>
-      <c r="E142" s="15"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="17">
-        <v>16</v>
-      </c>
-      <c r="E143" s="17"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="15">
-        <v>103</v>
-      </c>
-      <c r="E144" s="15"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="17">
-        <v>72</v>
-      </c>
-      <c r="E145" s="17"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="17">
-        <v>31</v>
-      </c>
-      <c r="E146" s="17"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="18">
-        <v>3855</v>
-      </c>
-      <c r="E147" s="18"/>
-      <c r="F147" s="8">
-        <v>1066</v>
-      </c>
-      <c r="G147" s="9"/>
-      <c r="H147" s="8">
-        <v>2789</v>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="18">
+        <v>3836</v>
+      </c>
+      <c r="E137" s="18"/>
+      <c r="F137" s="8">
+        <v>1129</v>
+      </c>
+      <c r="G137" s="9"/>
+      <c r="H137" s="8">
+        <v>2707</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="289">
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:E142"/>
+  <mergeCells count="269">
     <mergeCell ref="A133:C133"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="A134:C134"/>
